--- a/public/templates/att_report.xlsx
+++ b/public/templates/att_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\SideProjects\report-projects\meir-att\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478D85CF-DABD-4C2F-A406-8AA36AE5C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6A02A1-C133-44CB-83F2-89FDB990F186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21900" windowHeight="13176" activeTab="8" xr2:uid="{2F61205C-6BC3-4C3D-9F5C-D8E7A2EA9148}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21900" windowHeight="13176" xr2:uid="{2F61205C-6BC3-4C3D-9F5C-D8E7A2EA9148}"/>
   </bookViews>
   <sheets>
     <sheet name="ספטמבר" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>מספר שיעורים</t>
   </si>
   <si>
-    <t>מספר חיסורים</t>
-  </si>
-  <si>
     <t>${table:rows.student_name}</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>${table:rows.klass_id}</t>
+  </si>
+  <si>
+    <t>חיסורים או ציונים</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0D8B3-8917-4C0C-99DA-1853A0CA42E9}">
   <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -492,24 +492,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1470,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1493,24 +1493,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2471,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2494,24 +2494,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,7 +3461,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3472,7 +3472,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -3495,24 +3495,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4462,7 +4462,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4473,7 +4473,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4496,24 +4496,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5474,7 +5474,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -5497,24 +5497,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6475,7 +6475,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6498,24 +6498,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7476,7 +7476,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7499,24 +7499,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8466,7 +8466,7 @@
   <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8477,7 +8477,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8500,24 +8500,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9466,8 +9466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6A009-8DBD-4D6F-91CA-FD5FDE8CAF93}">
   <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9478,7 +9478,7 @@
     <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9501,24 +9501,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
